--- a/data/trans_camb/P1423_2016_2023-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1423_2016_2023-Dificultad-trans_camb.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>7.600742447942846</v>
+        <v>7.600742447942848</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>4.47327062903682</v>
+        <v>4.473270629036817</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>6.062347932995707</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.755972073466955</v>
+        <v>4.696732120092395</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.450801009198917</v>
+        <v>1.434352244786775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.932328884907583</v>
+        <v>4.029612626157593</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.892381475678</v>
+        <v>10.95120650643343</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.554846120433667</v>
+        <v>7.583203164281881</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.358126357050878</v>
+        <v>8.445784775224949</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>2.030930426501023</v>
+        <v>2.030930426501024</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.4203183822738054</v>
+        <v>0.4203183822738051</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.8211620319060732</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>1.038167564404126</v>
+        <v>0.9873332100911834</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1276862848578797</v>
+        <v>0.1135982978188197</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.494187751006623</v>
+        <v>0.4851198613261617</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.473584930265101</v>
+        <v>3.422398584385349</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.8055269412826821</v>
+        <v>0.7969700598609006</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.253148167161751</v>
+        <v>1.30705155213192</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>3.997567599022152</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.540038241615361</v>
+        <v>3.540038241615362</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.637899984938137</v>
+        <v>1.527252133577448</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.856712381031411</v>
+        <v>2.007885882542821</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.175372018079258</v>
+        <v>2.265362120586361</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.683819468310119</v>
+        <v>4.509970753462406</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.997296745448562</v>
+        <v>6.114600635553322</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.846908137626053</v>
+        <v>4.894119076586571</v>
       </c>
     </row>
     <row r="13">
@@ -727,7 +727,7 @@
         <v>0.7388176718445667</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.040604742555526</v>
+        <v>1.040604742555527</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.8284183893370688</v>
+        <v>0.8003357724551053</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2949060692455069</v>
+        <v>0.2543816137129333</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5155156816538895</v>
+        <v>0.5680466579227476</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6.139465838581017</v>
+        <v>6.561607721800971</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.393729198910865</v>
+        <v>1.457430655416628</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.71169573326154</v>
+        <v>1.780445734109914</v>
       </c>
     </row>
     <row r="16">
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1.590882005891295</v>
+        <v>1.590882005891294</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.176538725308794</v>
+        <v>1.176538725308793</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>1.440861787508653</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2619854358757506</v>
+        <v>0.1787597358008873</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.163352132397467</v>
+        <v>-0.8789369539196972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07122727868095786</v>
+        <v>0.2107627272508324</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.018236217139581</v>
+        <v>2.865193065909191</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.096711391391823</v>
+        <v>3.215947080510889</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.654983255336219</v>
+        <v>2.646918437691869</v>
       </c>
     </row>
     <row r="19">
@@ -830,7 +830,7 @@
         <v>1.03233802208511</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.2378794803267053</v>
+        <v>0.2378794803267051</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.452072110088941</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.06142094814795406</v>
+        <v>0.04874498242301417</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.179991961089882</v>
+        <v>-0.1569220925306138</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.01003385524273245</v>
+        <v>0.05100135679911769</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.212174224215445</v>
+        <v>3.183145867493092</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8604174745570004</v>
+        <v>0.8873378677670547</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.059841587800735</v>
+        <v>1.075735527667422</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.161308199397849</v>
+        <v>1.250964767106968</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.7790626266535065</v>
+        <v>-0.5971216897679109</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7135087726329283</v>
+        <v>0.6435592370704166</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.120309192567076</v>
+        <v>4.1303036471764</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.327057132432774</v>
+        <v>3.303834242765913</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.237016735899009</v>
+        <v>3.250258126023035</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +939,7 @@
         <v>0.5048053311761243</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.095266523226051</v>
+        <v>1.09526652322605</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3256590935927836</v>
+        <v>0.5934483093191184</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1957178039894836</v>
+        <v>-0.1606774976098516</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2156014300592871</v>
+        <v>0.1952912446922837</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13.5873553878531</v>
+        <v>17.04020612944997</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.89788341058101</v>
+        <v>1.759245885827675</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.554435297408724</v>
+        <v>2.596192011539267</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>2.587906687052884</v>
+        <v>2.587906687052883</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>1.40226528773945</v>
+        <v>1.402265287739451</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.9936323991003</v>
+        <v>1.993632399100299</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.680824453110356</v>
+        <v>1.706715609689226</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2074421611827223</v>
+        <v>0.26807617407914</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.250468170453053</v>
+        <v>1.219956160907028</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.482143885679938</v>
+        <v>3.460292612688196</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.549760515179337</v>
+        <v>2.506982160735555</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.747214599631866</v>
+        <v>2.707932293715062</v>
       </c>
     </row>
     <row r="31">
@@ -1042,10 +1042,10 @@
         <v>1.249089189699474</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.2047486760080462</v>
+        <v>0.2047486760080464</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.4415050632877364</v>
+        <v>0.4415050632877361</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.6590273676551216</v>
+        <v>0.6791341037761042</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.02722143905907308</v>
+        <v>0.03716871638363315</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2560390610701564</v>
+        <v>0.2434017116020732</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.040078578086212</v>
+        <v>2.043687569850512</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4138542207715795</v>
+        <v>0.4057714618599723</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6806273841920919</v>
+        <v>0.6512578237244198</v>
       </c>
     </row>
     <row r="34">
